--- a/ocr_results.xlsx
+++ b/ocr_results.xlsx
@@ -429,11 +429,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>足韻飽滿</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ocr_results.xlsx
+++ b/ocr_results.xlsx
@@ -429,7 +429,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>足韻飽滿</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
